--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -43,6 +43,12 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>Rentals</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
   </si>
   <si>
     <t>D5202</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
   </si>
   <si>
     <t>Purgy's</t>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>5929.6500</v>
+        <v>9381.8900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>4234.0000</v>
+        <v>704.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>2223.0000</v>
+        <v>1280.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -530,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>989.0900</v>
+        <v>6124.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -542,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>3502.1600</v>
+        <v>368.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -554,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>1248.8300</v>
+        <v>7524.1800</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -566,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>696.5100</v>
+        <v>1404.3900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -578,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1662.9100</v>
+        <v>1299.5300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -590,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>3176.2900</v>
+        <v>1970.9200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,7 +614,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>19.7400</v>
+        <v>2774.7800</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,7 +626,31 @@
         <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>710.7300</v>
+        <v>10.0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3027.1700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>714.8000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,82 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -469,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -506,151 +475,107 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>9381.8900</v>
+        <v>35.5400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>704.0000</v>
+        <v>46213.8300</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1280.0000</v>
+        <v>18.7000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>6124.5000</v>
+        <v>3317.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>368.0000</v>
+        <v>21580.2600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>7524.1800</v>
+        <v>13433.9100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>1404.3900</v>
+        <v>7518.7600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>1299.5300</v>
+        <v>15039.9200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>1970.9200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2774.7800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.0000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3027.1700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>714.8000</v>
+        <v>1366.4900</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,52 +31,82 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>D1500</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
 </sst>
 </file>
@@ -439,15 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -475,107 +506,151 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>35.5400</v>
+        <v>9381.8900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>46213.8300</v>
+        <v>704.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>18.7000</v>
+        <v>1280.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>3317.0000</v>
+        <v>6124.5000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>21580.2600</v>
+        <v>368.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>13433.9100</v>
+        <v>7524.1800</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>7518.7600</v>
+        <v>1404.3900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>15039.9200</v>
+        <v>1299.5300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>1366.4900</v>
+        <v>1970.9200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2774.7800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3027.1700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>714.8000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,10 +31,13 @@
     <t>Tickets</t>
   </si>
   <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
     <t>T100</t>
-  </si>
-  <si>
-    <t>D1500</t>
   </si>
   <si>
     <t>Ski School</t>
@@ -469,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,8 +480,7 @@
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -506,151 +508,165 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>9381.8900</v>
+        <v>25.0000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>704.0000</v>
+        <v>14167.5900</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>1280.0000</v>
+        <v>2179.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>6124.5000</v>
+        <v>1600.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>368.0000</v>
+        <v>8819.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>7524.1800</v>
+        <v>593.9000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>1404.3900</v>
+        <v>9908.5400</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>1299.5300</v>
+        <v>2037.5600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>1970.9200</v>
+        <v>2052.8700</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>2774.7800</v>
+        <v>2849.4500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <v>10.0000</v>
+        <v>2774.7800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>3027.1700</v>
+        <v>20.0000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4825.5300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2">
-        <v>714.8000</v>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1264.7700</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,85 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -472,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -508,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>25.0000</v>
+        <v>37.4000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -522,151 +489,93 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>14167.5900</v>
+        <v>73073.8100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>2179.0000</v>
+        <v>730.6100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>1600.0000</v>
+        <v>4170.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>8819.5000</v>
+        <v>34164.0500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>593.9000</v>
+        <v>16623.2000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>9908.5400</v>
+        <v>12872.5500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>2037.5600</v>
+        <v>21845.3500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>2052.8700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2849.4500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2774.7800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20.0000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4825.5300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1264.7700</v>
+        <v>1676.4800</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,91 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -478,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -507,14 +468,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>61.2000</v>
+        <v>-89.8000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -522,169 +481,113 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>20646.7400</v>
+        <v>65.4500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>2657.0000</v>
+        <v>1480.8900</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>1920.0000</v>
+        <v>97827.1800</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>12344.5000</v>
+        <v>7683.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>2417.8100</v>
+        <v>46816.1900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>12057.9500</v>
+        <v>21027.0500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>2601.0300</v>
+        <v>19525.2600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>2754.1300</v>
+        <v>28520.7600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>3853.5600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2774.7800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40.0000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8189.2900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1966.1400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2">
-        <v>90.0000</v>
+        <v>2753.6200</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,52 +31,112 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T100</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6780                    </t>
   </si>
 </sst>
 </file>
@@ -439,14 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,12 +529,14 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-89.8000</v>
+        <v>61.2000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -481,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2">
-        <v>65.4500</v>
+        <v>2320.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -495,99 +558,205 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>1480.8900</v>
+        <v>98134.7400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>97827.1800</v>
+        <v>17658.6500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>7683.0000</v>
+        <v>2920.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>46816.1900</v>
+        <v>43941.5500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>21027.0500</v>
+        <v>5268.7200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>19525.2600</v>
+        <v>28690.7300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>28520.7600</v>
+        <v>6721.8200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>2753.6200</v>
+        <v>7421.6700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13842.3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4507.2400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1257.0800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>250.0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>37191.5100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6318.4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>800.0000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>90.0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>160.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For The Week Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,112 +31,55 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -499,16 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -536,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>61.2000</v>
+        <v>-589.3900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>2320.0000</v>
+        <v>121.5500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,199 +506,93 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>98134.7400</v>
+        <v>10825.2100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>17658.6500</v>
+        <v>345672.6300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>2920.0000</v>
+        <v>25242.4900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>43941.5500</v>
+        <v>133457.9200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>5268.7200</v>
+        <v>54333.4600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>28690.7300</v>
+        <v>50489.8200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>6721.8200</v>
+        <v>70719.2900</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>7421.6700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13842.3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4507.2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1257.0800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>250.0000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>37191.5100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6318.4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>800.0000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>90.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>160.0000</v>
+        <v>5405.3300</v>
       </c>
     </row>
   </sheetData>
